--- a/Adicionales/S1M22019_Adicionales.xlsx
+++ b/Adicionales/S1M22019_Adicionales.xlsx
@@ -100,24 +100,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -253,7 +246,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +582,10 @@
   <dimension ref="A2:BN26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +812,9 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="L4" s="11">
+        <v>3</v>
+      </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -875,14 +870,14 @@
       <c r="BM4" s="12"/>
       <c r="BN4" s="7">
         <f>SUM(C4:BM4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2"/>
@@ -972,7 +967,10 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="L6" s="11">
+        <f>3+3+3</f>
+        <v>9</v>
+      </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -1028,14 +1026,14 @@
       <c r="BM6" s="12"/>
       <c r="BN6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
@@ -1113,7 +1111,7 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2"/>
@@ -1128,7 +1126,10 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="11">
+        <f>3+3</f>
+        <v>6</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -1184,14 +1185,14 @@
       <c r="BM8" s="12"/>
       <c r="BN8" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2"/>
@@ -1344,7 +1345,7 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
@@ -1359,7 +1360,9 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="L11" s="11">
+        <v>3</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -1415,14 +1418,14 @@
       <c r="BM11" s="12"/>
       <c r="BN11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2"/>
@@ -1500,7 +1503,7 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2"/>
@@ -1653,7 +1656,7 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2"/>
@@ -1668,7 +1671,10 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="L15" s="11">
+        <f>3+3+3</f>
+        <v>9</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -1724,14 +1730,14 @@
       <c r="BM15" s="12"/>
       <c r="BN15" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2"/>
@@ -1746,7 +1752,10 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="L16" s="11">
+        <f>3+3+3+3</f>
+        <v>12</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -1802,14 +1811,14 @@
       <c r="BM16" s="12"/>
       <c r="BN16" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2"/>
@@ -1824,7 +1833,9 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="L17" s="11">
+        <v>3</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -1880,7 +1891,7 @@
       <c r="BM17" s="12"/>
       <c r="BN17" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">

--- a/Adicionales/S1M22019_Adicionales.xlsx
+++ b/Adicionales/S1M22019_Adicionales.xlsx
@@ -19,6 +19,112 @@
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>prof_tes_h</author>
+  </authors>
+  <commentList>
+    <comment ref="P9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>prof_tes_h:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10 puntos por video de cómo crear un video</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>prof_tes_h:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10 puntos por video de cómo crear un video</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>prof_tes_h:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Gridview con insertar, modificar y eliminar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>prof_tes_h:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10 puntos por video de cómo crear un video</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +209,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -578,14 +697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BN26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AL4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +940,9 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
+      <c r="S4" s="11">
+        <v>3</v>
+      </c>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
@@ -870,7 +991,7 @@
       <c r="BM4" s="12"/>
       <c r="BN4" s="7">
         <f>SUM(C4:BM4)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.25">
@@ -1211,7 +1332,9 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
+      <c r="P9" s="11">
+        <v>10</v>
+      </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -1263,7 +1386,7 @@
       <c r="BM9" s="12"/>
       <c r="BN9" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
@@ -1444,7 +1567,9 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
+      <c r="P12" s="11">
+        <v>10</v>
+      </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -1469,7 +1594,9 @@
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
-      <c r="AO12" s="11"/>
+      <c r="AO12" s="11">
+        <v>8</v>
+      </c>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
@@ -1496,7 +1623,7 @@
       <c r="BM12" s="12"/>
       <c r="BN12" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
@@ -1759,7 +1886,9 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
+      <c r="P16" s="11">
+        <v>2</v>
+      </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -1811,7 +1940,7 @@
       <c r="BM16" s="12"/>
       <c r="BN16" s="7">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.25">
@@ -2550,5 +2679,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>